--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value916.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value916.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.553605611936314</v>
+        <v>0.7785152196884155</v>
       </c>
       <c r="B1">
-        <v>1.680295902221796</v>
+        <v>2.195825576782227</v>
       </c>
       <c r="C1">
-        <v>1.948601203964385</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.2449643343967</v>
+        <v>1.904543876647949</v>
       </c>
       <c r="E1">
-        <v>1.67557249661625</v>
+        <v>1.086121439933777</v>
       </c>
     </row>
   </sheetData>
